--- a/IF Function with AND & OR function.xlsx
+++ b/IF Function with AND & OR function.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatima Khatoon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E18F478-B35C-4A0A-B5AD-7F3FDFC4ADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8C045-CC15-4F69-9005-D9D14BBFF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IF with AND &amp; OR" sheetId="1" r:id="rId1"/>
+    <sheet name="AND OR " sheetId="2" r:id="rId2"/>
+    <sheet name="COUNTIF" sheetId="4" r:id="rId3"/>
+    <sheet name="SUMIF" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t xml:space="preserve">Students </t>
   </si>
@@ -75,12 +78,69 @@
   </si>
   <si>
     <t>Here in this exercise we areusing IF Condition along with AND &amp; OR function</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Maths Grade</t>
+  </si>
+  <si>
+    <t>Science Grade</t>
+  </si>
+  <si>
+    <t>English Grade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>GRADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTIF MATHS </t>
+  </si>
+  <si>
+    <t>COUNTIF SCIENCE</t>
+  </si>
+  <si>
+    <t>COUNTIF ENGLISH</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>DISTINCTION</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>SUM OF THE MARKS OBTAINED FROM THE PROMOTED STUDENT</t>
+  </si>
+  <si>
+    <t>MATHS</t>
+  </si>
+  <si>
+    <t>SCIENCE</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,10 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,4 +712,679 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2" t="b">
+        <f>AND(B2&gt;75,C2&gt;75,D2&gt;75)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>OR(B2&gt;75,C2&gt;75,D2&gt;75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E7" si="0">AND(B3&gt;75,C3&gt;75,D3&gt;75)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F7" si="1">OR(B3&gt;75,C3&gt;75,D3&gt;75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FC21F-B58C-4066-90A1-AC86984F2409}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(F2:F7,N2)</f>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(G2:G7,N3)</f>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(H2:H7,N4)</f>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(F3:F8,N3)</f>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="0">COUNTIF(G3:G8,N4)</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="1">COUNTIF(H3:H8,N5)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K3:K7" si="2">COUNTIF(F4:F9,N4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C1BBBE-3652-4F7B-9CBE-ED2E2E9F0938}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>SUMIF(H2:H7,A12,B2:B7)</f>
+        <v>349</v>
+      </c>
+      <c r="C12">
+        <f>SUMIF(H2:H7,A12,C2:C7)</f>
+        <v>315</v>
+      </c>
+      <c r="D12">
+        <f>SUMIF(H2:H7,A12,D2:D7)</f>
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>